--- a/contratos/contratos-8-2019.xlsx
+++ b/contratos/contratos-8-2019.xlsx
@@ -1081,7 +1081,7 @@
     <t>BONNIN CRISTIAN FEDERICO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1237,7 +1237,7 @@
     <t>COURVOISIER SILVIO ROBERTO</t>
   </si>
   <si>
-    <t>EDICIONES NATIVA S.H DE ESCOBAR JORGE, MARTINEZ ALFREDO, PIZIGHINI CARLOS L Y R</t>
+    <t>EDICIONES NATIVA SH DE ESCOBAR JORGE. MARTINEZ ALFREDO. PIZIGHINI CARLOS L Y R</t>
   </si>
   <si>
     <t>EL MIERCOLES COMUNICACION Y CULTURA</t>
@@ -1330,7 +1330,7 @@
     <t>LEMOS ALFREDO GUILLERMO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1354,7 +1354,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>INSTITUTO AUTARQUICO PROVINCIAL DEL SEGURO</t>
@@ -1924,778 +1924,778 @@
     <t>53</t>
   </si>
   <si>
-    <t>155.250,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>93.010,00</t>
-  </si>
-  <si>
-    <t>4.032.000,00</t>
-  </si>
-  <si>
-    <t>1.374.000,00</t>
-  </si>
-  <si>
-    <t>250.000,00</t>
-  </si>
-  <si>
-    <t>5.908.320,00</t>
-  </si>
-  <si>
-    <t>3.184.800,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>19.826,00</t>
-  </si>
-  <si>
-    <t>365,00</t>
-  </si>
-  <si>
-    <t>1.540,00</t>
-  </si>
-  <si>
-    <t>14.810,00</t>
-  </si>
-  <si>
-    <t>1.504.477,40</t>
-  </si>
-  <si>
-    <t>587.000,00</t>
-  </si>
-  <si>
-    <t>315.000,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>39.194,00</t>
-  </si>
-  <si>
-    <t>953.809,04</t>
-  </si>
-  <si>
-    <t>44.206,00</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>21.400,00</t>
-  </si>
-  <si>
-    <t>94.590,00</t>
-  </si>
-  <si>
-    <t>122.880,00</t>
-  </si>
-  <si>
-    <t>562.833,08</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>3.096,00</t>
-  </si>
-  <si>
-    <t>4.782,10</t>
-  </si>
-  <si>
-    <t>92.265,88</t>
-  </si>
-  <si>
-    <t>24.923,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>117.785,43</t>
-  </si>
-  <si>
-    <t>9.720,00</t>
-  </si>
-  <si>
-    <t>39.900,00</t>
-  </si>
-  <si>
-    <t>15.972,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>13.418,90</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>2.190,00</t>
-  </si>
-  <si>
-    <t>67,49</t>
-  </si>
-  <si>
-    <t>359.600,00</t>
-  </si>
-  <si>
-    <t>909,20</t>
-  </si>
-  <si>
-    <t>247,94</t>
-  </si>
-  <si>
-    <t>106.000,00</t>
-  </si>
-  <si>
-    <t>1.657,82</t>
-  </si>
-  <si>
-    <t>2.891.056,53</t>
-  </si>
-  <si>
-    <t>151.512,73</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>23.540,00</t>
-  </si>
-  <si>
-    <t>24.268,00</t>
-  </si>
-  <si>
-    <t>433,25</t>
-  </si>
-  <si>
-    <t>458.429,71</t>
-  </si>
-  <si>
-    <t>117.240,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>15.792,75</t>
-  </si>
-  <si>
-    <t>10.045,02</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>4.450,00</t>
-  </si>
-  <si>
-    <t>15.196,61</t>
-  </si>
-  <si>
-    <t>33.549,50</t>
-  </si>
-  <si>
-    <t>102.373,40</t>
-  </si>
-  <si>
-    <t>4.154,00</t>
-  </si>
-  <si>
-    <t>16.003,40</t>
-  </si>
-  <si>
-    <t>90.210,00</t>
-  </si>
-  <si>
-    <t>1.880,00</t>
-  </si>
-  <si>
-    <t>1.279.551,69</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>5.523,00</t>
-  </si>
-  <si>
-    <t>735,50</t>
-  </si>
-  <si>
-    <t>12.530,29</t>
-  </si>
-  <si>
-    <t>4.583,86</t>
-  </si>
-  <si>
-    <t>105.956,65</t>
-  </si>
-  <si>
-    <t>33.960,00</t>
-  </si>
-  <si>
-    <t>53.200,00</t>
-  </si>
-  <si>
-    <t>55.900,00</t>
-  </si>
-  <si>
-    <t>30.835,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>3.139,46</t>
-  </si>
-  <si>
-    <t>8.680,44</t>
-  </si>
-  <si>
-    <t>5.897,02</t>
-  </si>
-  <si>
-    <t>15.030,00</t>
-  </si>
-  <si>
-    <t>144.000,00</t>
-  </si>
-  <si>
-    <t>1.170,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>172.702,90</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>32.900,00</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>134.940,00</t>
-  </si>
-  <si>
-    <t>3.360,00</t>
-  </si>
-  <si>
-    <t>7.195,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>543.300,00</t>
-  </si>
-  <si>
-    <t>19.276,00</t>
-  </si>
-  <si>
-    <t>2.142,00</t>
-  </si>
-  <si>
-    <t>6.352,00</t>
-  </si>
-  <si>
-    <t>18,75</t>
-  </si>
-  <si>
-    <t>36.700,48</t>
-  </si>
-  <si>
-    <t>9,25</t>
-  </si>
-  <si>
-    <t>5,20</t>
-  </si>
-  <si>
-    <t>43.288,80</t>
-  </si>
-  <si>
-    <t>28.748,12</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>944,80</t>
-  </si>
-  <si>
-    <t>6.957,00</t>
-  </si>
-  <si>
-    <t>30.410,00</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>43.904,40</t>
-  </si>
-  <si>
-    <t>17.360,00</t>
-  </si>
-  <si>
-    <t>103.256,75</t>
-  </si>
-  <si>
-    <t>2.518.500,00</t>
-  </si>
-  <si>
-    <t>7.340,00</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>2.480,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>11.770,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>1.904,00</t>
-  </si>
-  <si>
-    <t>6.870,00</t>
-  </si>
-  <si>
-    <t>8.603,00</t>
-  </si>
-  <si>
-    <t>26.511,78</t>
-  </si>
-  <si>
-    <t>193,91</t>
-  </si>
-  <si>
-    <t>852,00</t>
-  </si>
-  <si>
-    <t>13.481,00</t>
-  </si>
-  <si>
-    <t>477,69</t>
-  </si>
-  <si>
-    <t>4.072,67</t>
-  </si>
-  <si>
-    <t>3.289,00</t>
-  </si>
-  <si>
-    <t>286,06</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>615.767,02</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>338.500,00</t>
-  </si>
-  <si>
-    <t>62.000,00</t>
-  </si>
-  <si>
-    <t>61.828,20</t>
-  </si>
-  <si>
-    <t>89.020,00</t>
-  </si>
-  <si>
-    <t>6.852,00</t>
-  </si>
-  <si>
-    <t>12.290,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>129.000,00</t>
-  </si>
-  <si>
-    <t>16.200,00</t>
-  </si>
-  <si>
-    <t>13.200,00</t>
-  </si>
-  <si>
-    <t>194.000,00</t>
-  </si>
-  <si>
-    <t>444.900,00</t>
-  </si>
-  <si>
-    <t>46.000,00</t>
-  </si>
-  <si>
-    <t>15.600,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>49.000,00</t>
-  </si>
-  <si>
-    <t>19.076,22</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>23.327,70</t>
-  </si>
-  <si>
-    <t>13.120,00</t>
-  </si>
-  <si>
-    <t>51.300,00</t>
-  </si>
-  <si>
-    <t>7.851,91</t>
-  </si>
-  <si>
-    <t>14.445,00</t>
-  </si>
-  <si>
-    <t>13.038.000,00</t>
-  </si>
-  <si>
-    <t>35.805,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>23.728,77</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>59.901,50</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>85.498,88</t>
-  </si>
-  <si>
-    <t>93.320,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>2.420,00</t>
-  </si>
-  <si>
-    <t>16.424,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>46.250,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>98,76</t>
-  </si>
-  <si>
-    <t>7.840,00</t>
-  </si>
-  <si>
-    <t>2.783,00</t>
-  </si>
-  <si>
-    <t>137,98</t>
-  </si>
-  <si>
-    <t>23.180,00</t>
-  </si>
-  <si>
-    <t>8.700,00</t>
-  </si>
-  <si>
-    <t>4.168,24</t>
-  </si>
-  <si>
-    <t>10.580,00</t>
-  </si>
-  <si>
-    <t>4.561,05</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>14.850,00</t>
-  </si>
-  <si>
-    <t>15.050,00</t>
-  </si>
-  <si>
-    <t>65.651,00</t>
-  </si>
-  <si>
-    <t>16.806,79</t>
-  </si>
-  <si>
-    <t>23.940,00</t>
-  </si>
-  <si>
-    <t>1.117,65</t>
-  </si>
-  <si>
-    <t>16.740,90</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>6.017,43</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>9.450,00</t>
-  </si>
-  <si>
-    <t>30.485,14</t>
-  </si>
-  <si>
-    <t>24.282,88</t>
-  </si>
-  <si>
-    <t>15.854,54</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>71.700,00</t>
-  </si>
-  <si>
-    <t>222.786,17</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>239.718,63</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>199.800,00</t>
-  </si>
-  <si>
-    <t>20.691,00</t>
-  </si>
-  <si>
-    <t>815.000,00</t>
-  </si>
-  <si>
-    <t>258.000,00</t>
-  </si>
-  <si>
-    <t>4.595.095,62</t>
-  </si>
-  <si>
-    <t>281.850,00</t>
-  </si>
-  <si>
-    <t>270.400,00</t>
-  </si>
-  <si>
-    <t>272.400,00</t>
-  </si>
-  <si>
-    <t>486.000,00</t>
-  </si>
-  <si>
-    <t>627.450,00</t>
-  </si>
-  <si>
-    <t>577.000,00</t>
-  </si>
-  <si>
-    <t>342.600,00</t>
-  </si>
-  <si>
-    <t>508.000,00</t>
-  </si>
-  <si>
-    <t>516.000,00</t>
-  </si>
-  <si>
-    <t>415.000,00</t>
-  </si>
-  <si>
-    <t>512.400,00</t>
-  </si>
-  <si>
-    <t>737.400,00</t>
-  </si>
-  <si>
-    <t>742.300,00</t>
-  </si>
-  <si>
-    <t>265.970,00</t>
-  </si>
-  <si>
-    <t>69.700,00</t>
-  </si>
-  <si>
-    <t>243.932,22</t>
-  </si>
-  <si>
-    <t>2.422,33</t>
-  </si>
-  <si>
-    <t>2.193.933,07</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>186.000,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>56.300,00</t>
-  </si>
-  <si>
-    <t>597.000,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>116.900,00</t>
-  </si>
-  <si>
-    <t>6.560,02</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>9.700,00</t>
-  </si>
-  <si>
-    <t>70.225,00</t>
-  </si>
-  <si>
-    <t>4.750,00</t>
+    <t>155250.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>93010.00</t>
+  </si>
+  <si>
+    <t>4032000.00</t>
+  </si>
+  <si>
+    <t>1374000.00</t>
+  </si>
+  <si>
+    <t>250000.00</t>
+  </si>
+  <si>
+    <t>5908320.00</t>
+  </si>
+  <si>
+    <t>3184800.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>19826.00</t>
+  </si>
+  <si>
+    <t>365.00</t>
+  </si>
+  <si>
+    <t>1540.00</t>
+  </si>
+  <si>
+    <t>14810.00</t>
+  </si>
+  <si>
+    <t>1504477.40</t>
+  </si>
+  <si>
+    <t>587000.00</t>
+  </si>
+  <si>
+    <t>315000.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>39194.00</t>
+  </si>
+  <si>
+    <t>953809.04</t>
+  </si>
+  <si>
+    <t>44206.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>21400.00</t>
+  </si>
+  <si>
+    <t>94590.00</t>
+  </si>
+  <si>
+    <t>122880.00</t>
+  </si>
+  <si>
+    <t>562833.08</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>3096.00</t>
+  </si>
+  <si>
+    <t>4782.10</t>
+  </si>
+  <si>
+    <t>92265.88</t>
+  </si>
+  <si>
+    <t>24923.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>117785.43</t>
+  </si>
+  <si>
+    <t>9720.00</t>
+  </si>
+  <si>
+    <t>39900.00</t>
+  </si>
+  <si>
+    <t>15972.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>13418.90</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>2190.00</t>
+  </si>
+  <si>
+    <t>67.49</t>
+  </si>
+  <si>
+    <t>359600.00</t>
+  </si>
+  <si>
+    <t>909.20</t>
+  </si>
+  <si>
+    <t>247.94</t>
+  </si>
+  <si>
+    <t>106000.00</t>
+  </si>
+  <si>
+    <t>1657.82</t>
+  </si>
+  <si>
+    <t>2891056.53</t>
+  </si>
+  <si>
+    <t>151512.73</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>23540.00</t>
+  </si>
+  <si>
+    <t>24268.00</t>
+  </si>
+  <si>
+    <t>433.25</t>
+  </si>
+  <si>
+    <t>458429.71</t>
+  </si>
+  <si>
+    <t>117240.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>15792.75</t>
+  </si>
+  <si>
+    <t>10045.02</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>4450.00</t>
+  </si>
+  <si>
+    <t>15196.61</t>
+  </si>
+  <si>
+    <t>33549.50</t>
+  </si>
+  <si>
+    <t>102373.40</t>
+  </si>
+  <si>
+    <t>4154.00</t>
+  </si>
+  <si>
+    <t>16003.40</t>
+  </si>
+  <si>
+    <t>90210.00</t>
+  </si>
+  <si>
+    <t>1880.00</t>
+  </si>
+  <si>
+    <t>1279551.69</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>5523.00</t>
+  </si>
+  <si>
+    <t>735.50</t>
+  </si>
+  <si>
+    <t>12530.29</t>
+  </si>
+  <si>
+    <t>4583.86</t>
+  </si>
+  <si>
+    <t>105956.65</t>
+  </si>
+  <si>
+    <t>33960.00</t>
+  </si>
+  <si>
+    <t>53200.00</t>
+  </si>
+  <si>
+    <t>55900.00</t>
+  </si>
+  <si>
+    <t>30835.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>3139.46</t>
+  </si>
+  <si>
+    <t>8680.44</t>
+  </si>
+  <si>
+    <t>5897.02</t>
+  </si>
+  <si>
+    <t>15030.00</t>
+  </si>
+  <si>
+    <t>144000.00</t>
+  </si>
+  <si>
+    <t>1170.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>172702.90</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>32900.00</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>134940.00</t>
+  </si>
+  <si>
+    <t>3360.00</t>
+  </si>
+  <si>
+    <t>7195.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>543300.00</t>
+  </si>
+  <si>
+    <t>19276.00</t>
+  </si>
+  <si>
+    <t>2142.00</t>
+  </si>
+  <si>
+    <t>6352.00</t>
+  </si>
+  <si>
+    <t>18.75</t>
+  </si>
+  <si>
+    <t>36700.48</t>
+  </si>
+  <si>
+    <t>9.25</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>43288.80</t>
+  </si>
+  <si>
+    <t>28748.12</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>944.80</t>
+  </si>
+  <si>
+    <t>6957.00</t>
+  </si>
+  <si>
+    <t>30410.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>43904.40</t>
+  </si>
+  <si>
+    <t>17360.00</t>
+  </si>
+  <si>
+    <t>103256.75</t>
+  </si>
+  <si>
+    <t>2518500.00</t>
+  </si>
+  <si>
+    <t>7340.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>2480.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>11770.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>1904.00</t>
+  </si>
+  <si>
+    <t>6870.00</t>
+  </si>
+  <si>
+    <t>8603.00</t>
+  </si>
+  <si>
+    <t>26511.78</t>
+  </si>
+  <si>
+    <t>193.91</t>
+  </si>
+  <si>
+    <t>852.00</t>
+  </si>
+  <si>
+    <t>13481.00</t>
+  </si>
+  <si>
+    <t>477.69</t>
+  </si>
+  <si>
+    <t>4072.67</t>
+  </si>
+  <si>
+    <t>3289.00</t>
+  </si>
+  <si>
+    <t>286.06</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>615767.02</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>338500.00</t>
+  </si>
+  <si>
+    <t>62000.00</t>
+  </si>
+  <si>
+    <t>61828.20</t>
+  </si>
+  <si>
+    <t>89020.00</t>
+  </si>
+  <si>
+    <t>6852.00</t>
+  </si>
+  <si>
+    <t>12290.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>129000.00</t>
+  </si>
+  <si>
+    <t>16200.00</t>
+  </si>
+  <si>
+    <t>13200.00</t>
+  </si>
+  <si>
+    <t>194000.00</t>
+  </si>
+  <si>
+    <t>444900.00</t>
+  </si>
+  <si>
+    <t>46000.00</t>
+  </si>
+  <si>
+    <t>15600.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>49000.00</t>
+  </si>
+  <si>
+    <t>19076.22</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>23327.70</t>
+  </si>
+  <si>
+    <t>13120.00</t>
+  </si>
+  <si>
+    <t>51300.00</t>
+  </si>
+  <si>
+    <t>7851.91</t>
+  </si>
+  <si>
+    <t>14445.00</t>
+  </si>
+  <si>
+    <t>13038000.00</t>
+  </si>
+  <si>
+    <t>35805.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>23728.77</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>59901.50</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>85498.88</t>
+  </si>
+  <si>
+    <t>93320.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>16424.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>46250.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>98.76</t>
+  </si>
+  <si>
+    <t>7840.00</t>
+  </si>
+  <si>
+    <t>2783.00</t>
+  </si>
+  <si>
+    <t>137.98</t>
+  </si>
+  <si>
+    <t>23180.00</t>
+  </si>
+  <si>
+    <t>8700.00</t>
+  </si>
+  <si>
+    <t>4168.24</t>
+  </si>
+  <si>
+    <t>10580.00</t>
+  </si>
+  <si>
+    <t>4561.05</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>14850.00</t>
+  </si>
+  <si>
+    <t>15050.00</t>
+  </si>
+  <si>
+    <t>65651.00</t>
+  </si>
+  <si>
+    <t>16806.79</t>
+  </si>
+  <si>
+    <t>23940.00</t>
+  </si>
+  <si>
+    <t>1117.65</t>
+  </si>
+  <si>
+    <t>16740.90</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>6017.43</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>9450.00</t>
+  </si>
+  <si>
+    <t>30485.14</t>
+  </si>
+  <si>
+    <t>24282.88</t>
+  </si>
+  <si>
+    <t>15854.54</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>71700.00</t>
+  </si>
+  <si>
+    <t>222786.17</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>239718.63</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>199800.00</t>
+  </si>
+  <si>
+    <t>20691.00</t>
+  </si>
+  <si>
+    <t>815000.00</t>
+  </si>
+  <si>
+    <t>258000.00</t>
+  </si>
+  <si>
+    <t>4595095.62</t>
+  </si>
+  <si>
+    <t>281850.00</t>
+  </si>
+  <si>
+    <t>270400.00</t>
+  </si>
+  <si>
+    <t>272400.00</t>
+  </si>
+  <si>
+    <t>486000.00</t>
+  </si>
+  <si>
+    <t>627450.00</t>
+  </si>
+  <si>
+    <t>577000.00</t>
+  </si>
+  <si>
+    <t>342600.00</t>
+  </si>
+  <si>
+    <t>508000.00</t>
+  </si>
+  <si>
+    <t>516000.00</t>
+  </si>
+  <si>
+    <t>415000.00</t>
+  </si>
+  <si>
+    <t>512400.00</t>
+  </si>
+  <si>
+    <t>737400.00</t>
+  </si>
+  <si>
+    <t>742300.00</t>
+  </si>
+  <si>
+    <t>265970.00</t>
+  </si>
+  <si>
+    <t>69700.00</t>
+  </si>
+  <si>
+    <t>243932.22</t>
+  </si>
+  <si>
+    <t>2422.33</t>
+  </si>
+  <si>
+    <t>2193933.07</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>186000.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>56300.00</t>
+  </si>
+  <si>
+    <t>597000.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>116900.00</t>
+  </si>
+  <si>
+    <t>6560.02</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>70225.00</t>
+  </si>
+  <si>
+    <t>4750.00</t>
   </si>
 </sst>
 </file>
